--- a/Code/Results/Cases/Case_5_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20787178063609</v>
+        <v>9.569019626703113</v>
       </c>
       <c r="C2">
-        <v>6.961319614716505</v>
+        <v>4.771454877672043</v>
       </c>
       <c r="D2">
-        <v>6.711346505372465</v>
+        <v>9.111797131699333</v>
       </c>
       <c r="E2">
-        <v>9.268162984413788</v>
+        <v>13.73263851607157</v>
       </c>
       <c r="F2">
-        <v>22.68654174919742</v>
+        <v>33.53764191898374</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>14.46001918114817</v>
+        <v>23.12770959703984</v>
       </c>
       <c r="J2">
-        <v>5.970995403164645</v>
+        <v>10.16022615965031</v>
       </c>
       <c r="K2">
-        <v>10.98127285836789</v>
+        <v>9.879565221039517</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.24904818483081</v>
+        <v>15.2745590891047</v>
       </c>
       <c r="N2">
-        <v>12.7552933425341</v>
+        <v>19.72310094328487</v>
       </c>
       <c r="O2">
-        <v>16.24054217735567</v>
+        <v>25.33748623929653</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.41614055775589</v>
+        <v>9.323129051461192</v>
       </c>
       <c r="C3">
-        <v>6.52101955807263</v>
+        <v>4.60894037486724</v>
       </c>
       <c r="D3">
-        <v>6.451340628001276</v>
+        <v>9.081071464213856</v>
       </c>
       <c r="E3">
-        <v>9.051491785648693</v>
+        <v>13.72823215512727</v>
       </c>
       <c r="F3">
-        <v>22.44488147026728</v>
+        <v>33.59627219694907</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>14.58379765866232</v>
+        <v>23.20840598797368</v>
       </c>
       <c r="J3">
-        <v>5.974243659278184</v>
+        <v>10.1797088264588</v>
       </c>
       <c r="K3">
-        <v>10.32546420697931</v>
+        <v>9.72431153211914</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.79367522351703</v>
+        <v>15.21705972128948</v>
       </c>
       <c r="N3">
-        <v>12.94356616319737</v>
+        <v>19.78037058264175</v>
       </c>
       <c r="O3">
-        <v>16.24134892338151</v>
+        <v>25.40848426633801</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.90144990052704</v>
+        <v>9.170404399642287</v>
       </c>
       <c r="C4">
-        <v>6.235372290747342</v>
+        <v>4.50684523000601</v>
       </c>
       <c r="D4">
-        <v>6.288915557106142</v>
+        <v>9.063625518905637</v>
       </c>
       <c r="E4">
-        <v>8.920571054306549</v>
+        <v>13.72782019895621</v>
       </c>
       <c r="F4">
-        <v>22.3122262402014</v>
+        <v>33.639184733143</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>14.66904789986443</v>
+        <v>23.26173951049179</v>
       </c>
       <c r="J4">
-        <v>5.978647527566717</v>
+        <v>10.19279432961303</v>
       </c>
       <c r="K4">
-        <v>9.900789781170614</v>
+        <v>9.629292081229258</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.50827885477471</v>
+        <v>15.18400478770084</v>
       </c>
       <c r="N4">
-        <v>13.06187394596206</v>
+        <v>19.81719153603215</v>
       </c>
       <c r="O4">
-        <v>16.25355658140372</v>
+        <v>25.45667817026678</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.68450851682397</v>
+        <v>9.10782374012765</v>
       </c>
       <c r="C5">
-        <v>6.11511992729662</v>
+        <v>4.464724283593917</v>
       </c>
       <c r="D5">
-        <v>6.222128093685606</v>
+        <v>9.056878427614548</v>
       </c>
       <c r="E5">
-        <v>8.867817017869964</v>
+        <v>13.72823079897841</v>
       </c>
       <c r="F5">
-        <v>22.26207428356681</v>
+        <v>33.65840857046825</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>14.70603271515183</v>
+        <v>23.28442515574758</v>
       </c>
       <c r="J5">
-        <v>5.981035990960533</v>
+        <v>10.19840949986023</v>
       </c>
       <c r="K5">
-        <v>9.72222750543674</v>
+        <v>9.590695588802095</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39069247507306</v>
+        <v>15.17111028186017</v>
       </c>
       <c r="N5">
-        <v>13.11078427462441</v>
+        <v>19.83261428344682</v>
       </c>
       <c r="O5">
-        <v>16.2613794925028</v>
+        <v>25.47747334745691</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64805022851278</v>
+        <v>9.097414356294637</v>
       </c>
       <c r="C6">
-        <v>6.094919726762198</v>
+        <v>4.457700947733227</v>
       </c>
       <c r="D6">
-        <v>6.211005132495739</v>
+        <v>9.055780105577092</v>
       </c>
       <c r="E6">
-        <v>8.85909522456555</v>
+        <v>13.7283339630114</v>
       </c>
       <c r="F6">
-        <v>22.25398089592573</v>
+        <v>33.66170550223912</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>14.71230728628284</v>
+        <v>23.2882495730432</v>
       </c>
       <c r="J6">
-        <v>5.981468109479855</v>
+        <v>10.19935897946641</v>
       </c>
       <c r="K6">
-        <v>9.6922460621201</v>
+        <v>9.584295596422269</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.37109515166541</v>
+        <v>15.16900420395812</v>
       </c>
       <c r="N6">
-        <v>13.11894852857267</v>
+        <v>19.83520049503986</v>
       </c>
       <c r="O6">
-        <v>16.26284765432023</v>
+        <v>25.48099614154419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89855332919651</v>
+        <v>9.169561679193459</v>
       </c>
       <c r="C7">
-        <v>6.233766106716651</v>
+        <v>4.506279173232699</v>
       </c>
       <c r="D7">
-        <v>6.288017117671332</v>
+        <v>9.063533051743201</v>
       </c>
       <c r="E7">
-        <v>8.91985709067761</v>
+        <v>13.72782339211624</v>
       </c>
       <c r="F7">
-        <v>22.311534128926</v>
+        <v>33.63943696364402</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>14.66953770598415</v>
+        <v>23.26204160338334</v>
       </c>
       <c r="J7">
-        <v>5.978677350596174</v>
+        <v>10.1928689126167</v>
       </c>
       <c r="K7">
-        <v>9.898403865224154</v>
+        <v>9.628770987526702</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.50669800475373</v>
+        <v>15.18382854448853</v>
       </c>
       <c r="N7">
-        <v>13.06253071427602</v>
+        <v>19.81739783890102</v>
       </c>
       <c r="O7">
-        <v>16.2536506803746</v>
+        <v>25.45695394320454</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.94079906318506</v>
+        <v>9.484654704773535</v>
       </c>
       <c r="C8">
-        <v>6.812677635315681</v>
+        <v>4.71593647741273</v>
       </c>
       <c r="D8">
-        <v>6.622331076647465</v>
+        <v>9.100911520049603</v>
       </c>
       <c r="E8">
-        <v>9.193054419274501</v>
+        <v>13.73064429063238</v>
       </c>
       <c r="F8">
-        <v>22.59992781796595</v>
+        <v>33.55642183003363</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>14.50072808975524</v>
+        <v>23.15474793697541</v>
       </c>
       <c r="J8">
-        <v>5.971608087447031</v>
+        <v>10.1667108830027</v>
       </c>
       <c r="K8">
-        <v>10.75973101049537</v>
+        <v>9.825998445407226</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.09333574826208</v>
+        <v>15.25427244606801</v>
       </c>
       <c r="N8">
-        <v>12.81965902731016</v>
+        <v>19.74250429799495</v>
       </c>
       <c r="O8">
-        <v>16.23833141085469</v>
+        <v>25.36101079040525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75904825745586</v>
+        <v>10.08476391724618</v>
       </c>
       <c r="C9">
-        <v>7.826823920970391</v>
+        <v>5.106187647836443</v>
       </c>
       <c r="D9">
-        <v>7.251944014551537</v>
+        <v>9.185229100752784</v>
       </c>
       <c r="E9">
-        <v>9.742778143443765</v>
+        <v>13.75428849249345</v>
       </c>
       <c r="F9">
-        <v>23.29188246942429</v>
+        <v>33.44854839740488</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>14.24693360894288</v>
+        <v>22.97438779415045</v>
       </c>
       <c r="J9">
-        <v>5.977403760580932</v>
+        <v>10.12431202030644</v>
       </c>
       <c r="K9">
-        <v>12.27350549366305</v>
+        <v>10.21313256478055</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.19117504267634</v>
+        <v>15.4098052290229</v>
       </c>
       <c r="N9">
-        <v>12.36400655064011</v>
+        <v>19.60873130666219</v>
       </c>
       <c r="O9">
-        <v>16.30550121076339</v>
+        <v>25.20942116238809</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.95912659174372</v>
+        <v>10.50994793123327</v>
       </c>
       <c r="C10">
-        <v>8.498820646141345</v>
+        <v>5.377148936399003</v>
       </c>
       <c r="D10">
-        <v>7.694180858538902</v>
+        <v>9.253543277860075</v>
       </c>
       <c r="E10">
-        <v>10.15158492756946</v>
+        <v>13.78257224336038</v>
       </c>
       <c r="F10">
-        <v>23.87892747166362</v>
+        <v>33.40284094134071</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>14.11315741538992</v>
+        <v>22.86019884663679</v>
       </c>
       <c r="J10">
-        <v>5.994392637387682</v>
+        <v>10.09856623543422</v>
       </c>
       <c r="K10">
-        <v>13.27860581876939</v>
+        <v>10.4950804859546</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.95827030826818</v>
+        <v>15.53402794524838</v>
       </c>
       <c r="N10">
-        <v>12.04053484503062</v>
+        <v>19.5183506411426</v>
       </c>
       <c r="O10">
-        <v>16.41985616588468</v>
+        <v>25.1203967641841</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.47602253881223</v>
+        <v>10.69904819112866</v>
       </c>
       <c r="C11">
-        <v>8.788879427313109</v>
+        <v>5.496463380679355</v>
       </c>
       <c r="D11">
-        <v>7.89019725318423</v>
+        <v>9.285922184016757</v>
       </c>
       <c r="E11">
-        <v>10.33793284282425</v>
+        <v>13.79777566831</v>
       </c>
       <c r="F11">
-        <v>24.16324019686298</v>
+        <v>33.38933695969613</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>14.06504127341485</v>
+        <v>22.8122314990136</v>
       </c>
       <c r="J11">
-        <v>6.005047019256157</v>
+        <v>10.08802319577594</v>
       </c>
       <c r="K11">
-        <v>13.71271485109208</v>
+        <v>10.62225782871483</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.29745270340109</v>
+        <v>15.59255218842386</v>
       </c>
       <c r="N11">
-        <v>11.8955349928949</v>
+        <v>19.47893309572037</v>
       </c>
       <c r="O11">
-        <v>16.48718310959783</v>
+        <v>25.0847620762475</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.66762143919765</v>
+        <v>10.76996648470059</v>
       </c>
       <c r="C12">
-        <v>8.896489717277101</v>
+        <v>5.541039428222196</v>
       </c>
       <c r="D12">
-        <v>7.96363116415026</v>
+        <v>9.298363194873556</v>
       </c>
       <c r="E12">
-        <v>10.40849975489411</v>
+        <v>13.80386558082744</v>
       </c>
       <c r="F12">
-        <v>24.27338737835775</v>
+        <v>33.38527095118867</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>14.04876699217939</v>
+        <v>22.79463976348419</v>
       </c>
       <c r="J12">
-        <v>6.009515587973591</v>
+        <v>10.08419855131265</v>
       </c>
       <c r="K12">
-        <v>13.87379240211468</v>
+        <v>10.67021719755998</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.4244070290816</v>
+        <v>15.61499019296583</v>
       </c>
       <c r="N12">
-        <v>11.84091069463358</v>
+        <v>19.46424948458602</v>
       </c>
       <c r="O12">
-        <v>16.51497297391644</v>
+        <v>25.07196828513259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.62654065437724</v>
+        <v>10.75472467813306</v>
       </c>
       <c r="C13">
-        <v>8.873412697707954</v>
+        <v>5.531466678384333</v>
       </c>
       <c r="D13">
-        <v>7.947851865066885</v>
+        <v>9.295675924594846</v>
       </c>
       <c r="E13">
-        <v>10.39330266438857</v>
+        <v>13.80253926835032</v>
       </c>
       <c r="F13">
-        <v>24.24955475252746</v>
+        <v>33.38610005646007</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>14.05218351512615</v>
+        <v>22.79840299089055</v>
       </c>
       <c r="J13">
-        <v>6.008533688430089</v>
+        <v>10.085014799973</v>
       </c>
       <c r="K13">
-        <v>13.83924841327383</v>
+        <v>10.65989786709581</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.39713240383408</v>
+        <v>15.61014570590881</v>
       </c>
       <c r="N13">
-        <v>11.85266279795117</v>
+        <v>19.46740107442283</v>
       </c>
       <c r="O13">
-        <v>16.50888441488834</v>
+        <v>25.07469249643872</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.49186822369787</v>
+        <v>10.70489688164824</v>
       </c>
       <c r="C14">
-        <v>8.797777135240379</v>
+        <v>5.500143021202121</v>
       </c>
       <c r="D14">
-        <v>7.896254867046963</v>
+        <v>9.286942153257513</v>
       </c>
       <c r="E14">
-        <v>10.34373869467738</v>
+        <v>13.79827004134585</v>
       </c>
       <c r="F14">
-        <v>24.17225229330732</v>
+        <v>33.388981454449</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>14.0636626997027</v>
+        <v>22.81077274078306</v>
       </c>
       <c r="J14">
-        <v>6.005405877258295</v>
+        <v>10.08770517926294</v>
       </c>
       <c r="K14">
-        <v>13.72603304038101</v>
+        <v>10.62620772897551</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.30792752132813</v>
+        <v>15.59439272136012</v>
       </c>
       <c r="N14">
-        <v>11.89103547582584</v>
+        <v>19.47772020310201</v>
       </c>
       <c r="O14">
-        <v>16.48942288467033</v>
+        <v>25.0836954830889</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.40883962384958</v>
+        <v>10.67428413135373</v>
       </c>
       <c r="C15">
-        <v>8.751158555771502</v>
+        <v>5.480876437148758</v>
       </c>
       <c r="D15">
-        <v>7.864545533158469</v>
+        <v>9.281615658202961</v>
       </c>
       <c r="E15">
-        <v>10.3133779550272</v>
+        <v>13.79569824040551</v>
       </c>
       <c r="F15">
-        <v>24.12522577980382</v>
+        <v>33.390882808054</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>14.07095097177237</v>
+        <v>22.81842413441557</v>
       </c>
       <c r="J15">
-        <v>6.003546914571356</v>
+        <v>10.08937495448724</v>
       </c>
       <c r="K15">
-        <v>13.65625477915143</v>
+        <v>10.60554422617436</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.25309118187656</v>
+        <v>15.58477911602487</v>
       </c>
       <c r="N15">
-        <v>11.91457606631645</v>
+        <v>19.48407257581257</v>
       </c>
       <c r="O15">
-        <v>16.47780369277489</v>
+        <v>25.0893012990236</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.92476513630588</v>
+        <v>10.49749686503972</v>
       </c>
       <c r="C16">
-        <v>8.479551622814595</v>
+        <v>5.369268663383861</v>
       </c>
       <c r="D16">
-        <v>7.681262323449022</v>
+        <v>9.251452816277526</v>
       </c>
       <c r="E16">
-        <v>10.13940960159391</v>
+        <v>13.78162540996283</v>
       </c>
       <c r="F16">
-        <v>23.86069460502206</v>
+        <v>33.40387009788871</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>14.1165679269614</v>
+        <v>22.8634137076868</v>
       </c>
       <c r="J16">
-        <v>5.993756356146593</v>
+        <v>10.09927874236584</v>
       </c>
       <c r="K16">
-        <v>13.24977169449478</v>
+        <v>10.48674354130715</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.93589999030768</v>
+        <v>15.53024263877538</v>
       </c>
       <c r="N16">
-        <v>12.0500520637418</v>
+        <v>19.52096072738759</v>
       </c>
       <c r="O16">
-        <v>16.41577225511644</v>
+        <v>25.12282351827059</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.62039146431179</v>
+        <v>10.38788669905488</v>
       </c>
       <c r="C17">
-        <v>8.308938137088493</v>
+        <v>5.29976132229846</v>
       </c>
       <c r="D17">
-        <v>7.567463318402363</v>
+        <v>9.23327724733762</v>
       </c>
       <c r="E17">
-        <v>10.03274324981255</v>
+        <v>13.77358844924831</v>
       </c>
       <c r="F17">
-        <v>23.70283765759394</v>
+        <v>33.41370401388642</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>14.14789506665234</v>
+        <v>22.89203248174945</v>
       </c>
       <c r="J17">
-        <v>5.988508975183205</v>
+        <v>10.10565355243559</v>
       </c>
       <c r="K17">
-        <v>12.99449519608654</v>
+        <v>10.41355389128371</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.73874772569707</v>
+        <v>15.49729276797787</v>
       </c>
       <c r="N17">
-        <v>12.13369526287945</v>
+        <v>19.54402430340318</v>
       </c>
       <c r="O17">
-        <v>16.38170572294033</v>
+        <v>25.14463458227147</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44258947031314</v>
+        <v>10.32443913247778</v>
       </c>
       <c r="C18">
-        <v>8.209332710371374</v>
+        <v>5.259412982566822</v>
       </c>
       <c r="D18">
-        <v>7.501526020615056</v>
+        <v>9.222946197332552</v>
       </c>
       <c r="E18">
-        <v>9.971430239293417</v>
+        <v>13.76918599020669</v>
       </c>
       <c r="F18">
-        <v>23.6136676750783</v>
+        <v>33.42004631514898</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>14.16710553629662</v>
+        <v>22.90886762295332</v>
       </c>
       <c r="J18">
-        <v>5.985765438827115</v>
+        <v>10.10943021065524</v>
       </c>
       <c r="K18">
-        <v>12.8454899241331</v>
+        <v>10.37135782060433</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.62443494213389</v>
+        <v>15.4785313467413</v>
       </c>
       <c r="N18">
-        <v>12.18200847933281</v>
+        <v>19.55744966264968</v>
       </c>
       <c r="O18">
-        <v>16.36354682403157</v>
+        <v>25.15763740044087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38191810612386</v>
+        <v>10.30288991087331</v>
       </c>
       <c r="C19">
-        <v>8.17535446141826</v>
+        <v>5.245689494512289</v>
       </c>
       <c r="D19">
-        <v>7.479119512801232</v>
+        <v>9.219469639627162</v>
       </c>
       <c r="E19">
-        <v>9.950679057600004</v>
+        <v>13.76773330839859</v>
       </c>
       <c r="F19">
-        <v>23.58375523654551</v>
+        <v>33.42231155119774</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>14.17381118383499</v>
+        <v>22.91463199866654</v>
       </c>
       <c r="J19">
-        <v>5.984883289280725</v>
+        <v>10.11072783012587</v>
       </c>
       <c r="K19">
-        <v>12.79466505848179</v>
+        <v>10.357055277956</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.5855759936375</v>
+        <v>15.47221217250771</v>
       </c>
       <c r="N19">
-        <v>12.19840225691298</v>
+        <v>19.56202273753592</v>
       </c>
       <c r="O19">
-        <v>16.35764214620205</v>
+        <v>25.16211850437138</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.65307530184463</v>
+        <v>10.39959708430376</v>
       </c>
       <c r="C20">
-        <v>8.327252554589789</v>
+        <v>5.307199035877354</v>
       </c>
       <c r="D20">
-        <v>7.579627816715001</v>
+        <v>9.235199385066815</v>
       </c>
       <c r="E20">
-        <v>10.04409446811865</v>
+        <v>13.77442123220477</v>
       </c>
       <c r="F20">
-        <v>23.71947357309799</v>
+        <v>33.41258617017787</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>14.14443606682955</v>
+        <v>22.88894721423664</v>
       </c>
       <c r="J20">
-        <v>5.989039050441786</v>
+        <v>10.10496355686757</v>
       </c>
       <c r="K20">
-        <v>13.02189503921849</v>
+        <v>10.42135566053333</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.75983036103742</v>
+        <v>15.50078072173956</v>
       </c>
       <c r="N20">
-        <v>12.12477037949347</v>
+        <v>19.54155261547343</v>
       </c>
       <c r="O20">
-        <v>16.38518293204265</v>
+        <v>25.14226538241694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.53153680154186</v>
+        <v>10.7195517562101</v>
       </c>
       <c r="C21">
-        <v>8.820053450069096</v>
+        <v>5.509360259677662</v>
       </c>
       <c r="D21">
-        <v>7.911432051751907</v>
+        <v>9.289502654084956</v>
       </c>
       <c r="E21">
-        <v>10.35829720972609</v>
+        <v>13.79951501535752</v>
       </c>
       <c r="F21">
-        <v>24.19489049092443</v>
+        <v>33.38810669092835</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>14.06023722777243</v>
+        <v>22.80712390535857</v>
       </c>
       <c r="J21">
-        <v>6.006312707068803</v>
+        <v>10.08691039871988</v>
       </c>
       <c r="K21">
-        <v>13.75937683972796</v>
+        <v>10.63610910919996</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.33417008139308</v>
+        <v>15.59901237042117</v>
       </c>
       <c r="N21">
-        <v>11.8797569892727</v>
+        <v>19.47468263961102</v>
       </c>
       <c r="O21">
-        <v>16.49507620044831</v>
+        <v>25.08103207447999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08155857157316</v>
+        <v>10.92461170867835</v>
       </c>
       <c r="C22">
-        <v>9.129147672488646</v>
+        <v>5.63793901995797</v>
       </c>
       <c r="D22">
-        <v>8.123643689207425</v>
+        <v>9.326037479057279</v>
       </c>
       <c r="E22">
-        <v>10.56363138426727</v>
+        <v>13.81785276707409</v>
       </c>
       <c r="F22">
-        <v>24.52008010163538</v>
+        <v>33.37821391088993</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>14.01660929652864</v>
+        <v>22.75698458370277</v>
       </c>
       <c r="J22">
-        <v>6.020137858089645</v>
+        <v>10.07608939538155</v>
       </c>
       <c r="K22">
-        <v>14.22207976907188</v>
+        <v>10.77527834090967</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.74281914205958</v>
+        <v>15.66481544439945</v>
       </c>
       <c r="N22">
-        <v>11.72126925292509</v>
+        <v>19.4323948957522</v>
       </c>
       <c r="O22">
-        <v>16.58031401932377</v>
+        <v>25.04509479418706</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.79019478488945</v>
+        <v>10.81555907923549</v>
       </c>
       <c r="C23">
-        <v>8.96535878857498</v>
+        <v>5.569649949150634</v>
       </c>
       <c r="D23">
-        <v>8.010821857381458</v>
+        <v>9.306445115785985</v>
       </c>
       <c r="E23">
-        <v>10.45405850869478</v>
+        <v>13.80788945962646</v>
       </c>
       <c r="F23">
-        <v>24.34519620428576</v>
+        <v>33.38293545343486</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>14.0388120842108</v>
+        <v>22.7834393997558</v>
       </c>
       <c r="J23">
-        <v>6.012522689354114</v>
+        <v>10.08177540404343</v>
       </c>
       <c r="K23">
-        <v>13.97688513889378</v>
+        <v>10.70112364271037</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.50596044575867</v>
+        <v>15.62955301259028</v>
       </c>
       <c r="N23">
-        <v>11.80571549221542</v>
+        <v>19.4548354821587</v>
       </c>
       <c r="O23">
-        <v>16.53356319926704</v>
+        <v>25.06390136906759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.63830770502952</v>
+        <v>10.39430415698705</v>
       </c>
       <c r="C24">
-        <v>8.318977334458276</v>
+        <v>5.303837650045877</v>
       </c>
       <c r="D24">
-        <v>7.574129840092017</v>
+        <v>9.234330017470459</v>
       </c>
       <c r="E24">
-        <v>10.03896254425857</v>
+        <v>13.77404405144015</v>
       </c>
       <c r="F24">
-        <v>23.71194754181671</v>
+        <v>33.41308940219238</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>14.14599615126806</v>
+        <v>22.89034087434274</v>
       </c>
       <c r="J24">
-        <v>5.988798553295362</v>
+        <v>10.10527515592272</v>
       </c>
       <c r="K24">
-        <v>13.00951455886945</v>
+        <v>10.4178288459405</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.75030190825615</v>
+        <v>15.49920325022397</v>
       </c>
       <c r="N24">
-        <v>12.12880461461859</v>
+        <v>19.54266954903261</v>
       </c>
       <c r="O24">
-        <v>16.38360644999889</v>
+        <v>25.14333505444738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.29114747775112</v>
+        <v>9.924848208738471</v>
       </c>
       <c r="C25">
-        <v>7.565372581521274</v>
+        <v>5.003183817868677</v>
       </c>
       <c r="D25">
-        <v>7.084901963673379</v>
+        <v>9.16127430397159</v>
       </c>
       <c r="E25">
-        <v>9.592948435869406</v>
+        <v>13.7459653219052</v>
       </c>
       <c r="F25">
-        <v>23.09095612851365</v>
+        <v>33.47184279513991</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>14.30676271967553</v>
+        <v>23.01996306458391</v>
       </c>
       <c r="J25">
-        <v>5.973654374826078</v>
+        <v>10.1348315071196</v>
       </c>
       <c r="K25">
-        <v>11.88280783228192</v>
+        <v>10.10864642999055</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.90064629351568</v>
+        <v>15.36593250398711</v>
       </c>
       <c r="N25">
-        <v>12.48519289752591</v>
+        <v>19.64352700501354</v>
       </c>
       <c r="O25">
-        <v>16.27632301483942</v>
+        <v>25.24650981154378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.569019626703113</v>
+        <v>12.20787178063606</v>
       </c>
       <c r="C2">
-        <v>4.771454877672043</v>
+        <v>6.96131961471642</v>
       </c>
       <c r="D2">
-        <v>9.111797131699333</v>
+        <v>6.711346505372452</v>
       </c>
       <c r="E2">
-        <v>13.73263851607157</v>
+        <v>9.268162984413792</v>
       </c>
       <c r="F2">
-        <v>33.53764191898374</v>
+        <v>22.6865417491976</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>23.12770959703984</v>
+        <v>14.46001918114828</v>
       </c>
       <c r="J2">
-        <v>10.16022615965031</v>
+        <v>5.970995403164673</v>
       </c>
       <c r="K2">
-        <v>9.879565221039517</v>
+        <v>10.98127285836783</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.2745590891047</v>
+        <v>11.24904818483086</v>
       </c>
       <c r="N2">
-        <v>19.72310094328487</v>
+        <v>12.75529334253413</v>
       </c>
       <c r="O2">
-        <v>25.33748623929653</v>
+        <v>16.24054217735586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.323129051461192</v>
+        <v>11.4161405577558</v>
       </c>
       <c r="C3">
-        <v>4.60894037486724</v>
+        <v>6.521019558072644</v>
       </c>
       <c r="D3">
-        <v>9.081071464213856</v>
+        <v>6.451340628001296</v>
       </c>
       <c r="E3">
-        <v>13.72823215512727</v>
+        <v>9.051491785648816</v>
       </c>
       <c r="F3">
-        <v>33.59627219694907</v>
+        <v>22.44488147026744</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>23.20840598797368</v>
+        <v>14.58379765866244</v>
       </c>
       <c r="J3">
-        <v>10.1797088264588</v>
+        <v>5.974243659278391</v>
       </c>
       <c r="K3">
-        <v>9.72431153211914</v>
+        <v>10.32546420697925</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.21705972128948</v>
+        <v>10.7936752235171</v>
       </c>
       <c r="N3">
-        <v>19.78037058264175</v>
+        <v>12.9435661631974</v>
       </c>
       <c r="O3">
-        <v>25.40848426633801</v>
+        <v>16.24134892338164</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.170404399642287</v>
+        <v>10.90144990052702</v>
       </c>
       <c r="C4">
-        <v>4.50684523000601</v>
+        <v>6.235372290747259</v>
       </c>
       <c r="D4">
-        <v>9.063625518905637</v>
+        <v>6.288915557106352</v>
       </c>
       <c r="E4">
-        <v>13.72782019895621</v>
+        <v>8.920571054306665</v>
       </c>
       <c r="F4">
-        <v>33.639184733143</v>
+        <v>22.31222624020172</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>23.26173951049179</v>
+        <v>14.66904789986454</v>
       </c>
       <c r="J4">
-        <v>10.19279432961303</v>
+        <v>5.978647527566745</v>
       </c>
       <c r="K4">
-        <v>9.629292081229258</v>
+        <v>9.900789781170598</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.18400478770084</v>
+        <v>10.50827885477477</v>
       </c>
       <c r="N4">
-        <v>19.81719153603215</v>
+        <v>13.06187394596213</v>
       </c>
       <c r="O4">
-        <v>25.45667817026678</v>
+        <v>16.25355658140388</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.10782374012765</v>
+        <v>10.68450851682393</v>
       </c>
       <c r="C5">
-        <v>4.464724283593917</v>
+        <v>6.115119927296708</v>
       </c>
       <c r="D5">
-        <v>9.056878427614548</v>
+        <v>6.222128093685638</v>
       </c>
       <c r="E5">
-        <v>13.72823079897841</v>
+        <v>8.867817017869866</v>
       </c>
       <c r="F5">
-        <v>33.65840857046825</v>
+        <v>22.26207428356696</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>23.28442515574758</v>
+        <v>14.70603271515195</v>
       </c>
       <c r="J5">
-        <v>10.19840949986023</v>
+        <v>5.981035990960469</v>
       </c>
       <c r="K5">
-        <v>9.590695588802095</v>
+        <v>9.722227505436726</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.17111028186017</v>
+        <v>10.39069247507304</v>
       </c>
       <c r="N5">
-        <v>19.83261428344682</v>
+        <v>13.11078427462451</v>
       </c>
       <c r="O5">
-        <v>25.47747334745691</v>
+        <v>16.26137949250292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.097414356294637</v>
+        <v>10.64805022851275</v>
       </c>
       <c r="C6">
-        <v>4.457700947733227</v>
+        <v>6.094919726761968</v>
       </c>
       <c r="D6">
-        <v>9.055780105577092</v>
+        <v>6.211005132495692</v>
       </c>
       <c r="E6">
-        <v>13.7283339630114</v>
+        <v>8.859095224565463</v>
       </c>
       <c r="F6">
-        <v>33.66170550223912</v>
+        <v>22.25398089592598</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>23.2882495730432</v>
+        <v>14.71230728628294</v>
       </c>
       <c r="J6">
-        <v>10.19935897946641</v>
+        <v>5.981468109479858</v>
       </c>
       <c r="K6">
-        <v>9.584295596422269</v>
+        <v>9.692246062120004</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.16900420395812</v>
+        <v>10.37109515166544</v>
       </c>
       <c r="N6">
-        <v>19.83520049503986</v>
+        <v>13.11894852857271</v>
       </c>
       <c r="O6">
-        <v>25.48099614154419</v>
+        <v>16.26284765432043</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.169561679193459</v>
+        <v>10.89855332919648</v>
       </c>
       <c r="C7">
-        <v>4.506279173232699</v>
+        <v>6.233766106716581</v>
       </c>
       <c r="D7">
-        <v>9.063533051743201</v>
+        <v>6.288017117671228</v>
       </c>
       <c r="E7">
-        <v>13.72782339211624</v>
+        <v>8.919857090677521</v>
       </c>
       <c r="F7">
-        <v>33.63943696364402</v>
+        <v>22.31153412892614</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>23.26204160338334</v>
+        <v>14.66953770598427</v>
       </c>
       <c r="J7">
-        <v>10.1928689126167</v>
+        <v>5.978677350596207</v>
       </c>
       <c r="K7">
-        <v>9.628770987526702</v>
+        <v>9.898403865224079</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.18382854448853</v>
+        <v>10.50669800475375</v>
       </c>
       <c r="N7">
-        <v>19.81739783890102</v>
+        <v>13.06253071427608</v>
       </c>
       <c r="O7">
-        <v>25.45695394320454</v>
+        <v>16.25365068037476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.484654704773535</v>
+        <v>11.94079906318494</v>
       </c>
       <c r="C8">
-        <v>4.71593647741273</v>
+        <v>6.812677635315769</v>
       </c>
       <c r="D8">
-        <v>9.100911520049603</v>
+        <v>6.622331076647541</v>
       </c>
       <c r="E8">
-        <v>13.73064429063238</v>
+        <v>9.193054419274482</v>
       </c>
       <c r="F8">
-        <v>33.55642183003363</v>
+        <v>22.59992781796622</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>23.15474793697541</v>
+        <v>14.5007280897555</v>
       </c>
       <c r="J8">
-        <v>10.1667108830027</v>
+        <v>5.971608087446976</v>
       </c>
       <c r="K8">
-        <v>9.825998445407226</v>
+        <v>10.75973101049528</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.25427244606801</v>
+        <v>11.0933357482621</v>
       </c>
       <c r="N8">
-        <v>19.74250429799495</v>
+        <v>12.81965902731029</v>
       </c>
       <c r="O8">
-        <v>25.36101079040525</v>
+        <v>16.23833141085492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.08476391724618</v>
+        <v>13.75904825745577</v>
       </c>
       <c r="C9">
-        <v>5.106187647836443</v>
+        <v>7.826823920970391</v>
       </c>
       <c r="D9">
-        <v>9.185229100752784</v>
+        <v>7.251944014551545</v>
       </c>
       <c r="E9">
-        <v>13.75428849249345</v>
+        <v>9.742778143443786</v>
       </c>
       <c r="F9">
-        <v>33.44854839740488</v>
+        <v>23.29188246942446</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>22.97438779415045</v>
+        <v>14.24693360894303</v>
       </c>
       <c r="J9">
-        <v>10.12431202030644</v>
+        <v>5.97740376058095</v>
       </c>
       <c r="K9">
-        <v>10.21313256478055</v>
+        <v>12.27350549366299</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.4098052290229</v>
+        <v>12.19117504267639</v>
       </c>
       <c r="N9">
-        <v>19.60873130666219</v>
+        <v>12.36400655064014</v>
       </c>
       <c r="O9">
-        <v>25.20942116238809</v>
+        <v>16.30550121076353</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.50994793123327</v>
+        <v>14.95912659174367</v>
       </c>
       <c r="C10">
-        <v>5.377148936399003</v>
+        <v>8.498820646141343</v>
       </c>
       <c r="D10">
-        <v>9.253543277860075</v>
+        <v>7.694180858538912</v>
       </c>
       <c r="E10">
-        <v>13.78257224336038</v>
+        <v>10.15158492756949</v>
       </c>
       <c r="F10">
-        <v>33.40284094134071</v>
+        <v>23.87892747166372</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>22.86019884663679</v>
+        <v>14.11315741539002</v>
       </c>
       <c r="J10">
-        <v>10.09856623543422</v>
+        <v>5.994392637387732</v>
       </c>
       <c r="K10">
-        <v>10.4950804859546</v>
+        <v>13.27860581876933</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.53402794524838</v>
+        <v>12.9582703082682</v>
       </c>
       <c r="N10">
-        <v>19.5183506411426</v>
+        <v>12.04053484503065</v>
       </c>
       <c r="O10">
-        <v>25.1203967641841</v>
+        <v>16.41985616588479</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.69904819112866</v>
+        <v>15.47602253881222</v>
       </c>
       <c r="C11">
-        <v>5.496463380679355</v>
+        <v>8.788879427313125</v>
       </c>
       <c r="D11">
-        <v>9.285922184016757</v>
+        <v>7.89019725318423</v>
       </c>
       <c r="E11">
-        <v>13.79777566831</v>
+        <v>10.33793284282423</v>
       </c>
       <c r="F11">
-        <v>33.38933695969613</v>
+        <v>24.16324019686298</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>22.8122314990136</v>
+        <v>14.06504127341485</v>
       </c>
       <c r="J11">
-        <v>10.08802319577594</v>
+        <v>6.005047019256167</v>
       </c>
       <c r="K11">
-        <v>10.62225782871483</v>
+        <v>13.71271485109204</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.59255218842386</v>
+        <v>13.29745270340109</v>
       </c>
       <c r="N11">
-        <v>19.47893309572037</v>
+        <v>11.89553499289487</v>
       </c>
       <c r="O11">
-        <v>25.0847620762475</v>
+        <v>16.48718310959783</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.76996648470059</v>
+        <v>15.66762143919757</v>
       </c>
       <c r="C12">
-        <v>5.541039428222196</v>
+        <v>8.896489717276914</v>
       </c>
       <c r="D12">
-        <v>9.298363194873556</v>
+        <v>7.96363116415026</v>
       </c>
       <c r="E12">
-        <v>13.80386558082744</v>
+        <v>10.40849975489403</v>
       </c>
       <c r="F12">
-        <v>33.38527095118867</v>
+        <v>24.27338737835805</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>22.79463976348419</v>
+        <v>14.04876699217962</v>
       </c>
       <c r="J12">
-        <v>10.08419855131265</v>
+        <v>6.009515587973536</v>
       </c>
       <c r="K12">
-        <v>10.67021719755998</v>
+        <v>13.87379240211455</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.61499019296583</v>
+        <v>13.42440702908162</v>
       </c>
       <c r="N12">
-        <v>19.46424948458602</v>
+        <v>11.84091069463368</v>
       </c>
       <c r="O12">
-        <v>25.07196828513259</v>
+        <v>16.51497297391671</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.75472467813306</v>
+        <v>15.62654065437722</v>
       </c>
       <c r="C13">
-        <v>5.531466678384333</v>
+        <v>8.873412697708023</v>
       </c>
       <c r="D13">
-        <v>9.295675924594846</v>
+        <v>7.947851865066916</v>
       </c>
       <c r="E13">
-        <v>13.80253926835032</v>
+        <v>10.39330266438859</v>
       </c>
       <c r="F13">
-        <v>33.38610005646007</v>
+        <v>24.24955475252757</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>22.79840299089055</v>
+        <v>14.05218351512626</v>
       </c>
       <c r="J13">
-        <v>10.085014799973</v>
+        <v>6.008533688430111</v>
       </c>
       <c r="K13">
-        <v>10.65989786709581</v>
+        <v>13.83924841327383</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.61014570590881</v>
+        <v>13.39713240383409</v>
       </c>
       <c r="N13">
-        <v>19.46740107442283</v>
+        <v>11.85266279795126</v>
       </c>
       <c r="O13">
-        <v>25.07469249643872</v>
+        <v>16.50888441488841</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.70489688164824</v>
+        <v>15.49186822369792</v>
       </c>
       <c r="C14">
-        <v>5.500143021202121</v>
+        <v>8.79777713524026</v>
       </c>
       <c r="D14">
-        <v>9.286942153257513</v>
+        <v>7.896254867047002</v>
       </c>
       <c r="E14">
-        <v>13.79827004134585</v>
+        <v>10.34373869467737</v>
       </c>
       <c r="F14">
-        <v>33.388981454449</v>
+        <v>24.17225229330735</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>22.81077274078306</v>
+        <v>14.06366269970263</v>
       </c>
       <c r="J14">
-        <v>10.08770517926294</v>
+        <v>6.005405877258268</v>
       </c>
       <c r="K14">
-        <v>10.62620772897551</v>
+        <v>13.72603304038098</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.59439272136012</v>
+        <v>13.30792752132814</v>
       </c>
       <c r="N14">
-        <v>19.47772020310201</v>
+        <v>11.89103547582581</v>
       </c>
       <c r="O14">
-        <v>25.0836954830889</v>
+        <v>16.48942288467033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.67428413135373</v>
+        <v>15.40883962384957</v>
       </c>
       <c r="C15">
-        <v>5.480876437148758</v>
+        <v>8.751158555771569</v>
       </c>
       <c r="D15">
-        <v>9.281615658202961</v>
+        <v>7.864545533158463</v>
       </c>
       <c r="E15">
-        <v>13.79569824040551</v>
+        <v>10.31337795502717</v>
       </c>
       <c r="F15">
-        <v>33.390882808054</v>
+        <v>24.12522577980383</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>22.81842413441557</v>
+        <v>14.0709509717724</v>
       </c>
       <c r="J15">
-        <v>10.08937495448724</v>
+        <v>6.003546914571309</v>
       </c>
       <c r="K15">
-        <v>10.60554422617436</v>
+        <v>13.65625477915147</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.58477911602487</v>
+        <v>13.25309118187655</v>
       </c>
       <c r="N15">
-        <v>19.48407257581257</v>
+        <v>11.91457606631652</v>
       </c>
       <c r="O15">
-        <v>25.0893012990236</v>
+        <v>16.4778036927749</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.49749686503972</v>
+        <v>14.92476513630583</v>
       </c>
       <c r="C16">
-        <v>5.369268663383861</v>
+        <v>8.479551622814579</v>
       </c>
       <c r="D16">
-        <v>9.251452816277526</v>
+        <v>7.681262323448957</v>
       </c>
       <c r="E16">
-        <v>13.78162540996283</v>
+        <v>10.13940960159387</v>
       </c>
       <c r="F16">
-        <v>33.40387009788871</v>
+        <v>23.86069460502202</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>22.8634137076868</v>
+        <v>14.1165679269614</v>
       </c>
       <c r="J16">
-        <v>10.09927874236584</v>
+        <v>5.993756356146594</v>
       </c>
       <c r="K16">
-        <v>10.48674354130715</v>
+        <v>13.24977169449473</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.53024263877538</v>
+        <v>12.93589999030768</v>
       </c>
       <c r="N16">
-        <v>19.52096072738759</v>
+        <v>12.05005206374173</v>
       </c>
       <c r="O16">
-        <v>25.12282351827059</v>
+        <v>16.41577225511644</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.38788669905488</v>
+        <v>14.62039146431185</v>
       </c>
       <c r="C17">
-        <v>5.29976132229846</v>
+        <v>8.308938137088408</v>
       </c>
       <c r="D17">
-        <v>9.23327724733762</v>
+        <v>7.567463318402318</v>
       </c>
       <c r="E17">
-        <v>13.77358844924831</v>
+        <v>10.03274324981256</v>
       </c>
       <c r="F17">
-        <v>33.41370401388642</v>
+        <v>23.70283765759396</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>22.89203248174945</v>
+        <v>14.14789506665227</v>
       </c>
       <c r="J17">
-        <v>10.10565355243559</v>
+        <v>5.988508975183231</v>
       </c>
       <c r="K17">
-        <v>10.41355389128371</v>
+        <v>12.99449519608654</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.49729276797787</v>
+        <v>12.73874772569707</v>
       </c>
       <c r="N17">
-        <v>19.54402430340318</v>
+        <v>12.13369526287945</v>
       </c>
       <c r="O17">
-        <v>25.14463458227147</v>
+        <v>16.38170572294034</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.32443913247778</v>
+        <v>14.4425894703131</v>
       </c>
       <c r="C18">
-        <v>5.259412982566822</v>
+        <v>8.209332710371472</v>
       </c>
       <c r="D18">
-        <v>9.222946197332552</v>
+        <v>7.501526020615028</v>
       </c>
       <c r="E18">
-        <v>13.76918599020669</v>
+        <v>9.971430239293481</v>
       </c>
       <c r="F18">
-        <v>33.42004631514898</v>
+        <v>23.61366767507843</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>22.90886762295332</v>
+        <v>14.16710553629679</v>
       </c>
       <c r="J18">
-        <v>10.10943021065524</v>
+        <v>5.985765438827142</v>
       </c>
       <c r="K18">
-        <v>10.37135782060433</v>
+        <v>12.8454899241331</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.4785313467413</v>
+        <v>12.62443494213391</v>
       </c>
       <c r="N18">
-        <v>19.55744966264968</v>
+        <v>12.18200847933291</v>
       </c>
       <c r="O18">
-        <v>25.15763740044087</v>
+        <v>16.3635468240317</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.30288991087331</v>
+        <v>14.38191810612383</v>
       </c>
       <c r="C19">
-        <v>5.245689494512289</v>
+        <v>8.175354461418358</v>
       </c>
       <c r="D19">
-        <v>9.219469639627162</v>
+        <v>7.479119512801224</v>
       </c>
       <c r="E19">
-        <v>13.76773330839859</v>
+        <v>9.9506790576</v>
       </c>
       <c r="F19">
-        <v>33.42231155119774</v>
+        <v>23.58375523654544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>22.91463199866654</v>
+        <v>14.17381118383493</v>
       </c>
       <c r="J19">
-        <v>10.11072783012587</v>
+        <v>5.984883289280725</v>
       </c>
       <c r="K19">
-        <v>10.357055277956</v>
+        <v>12.79466505848182</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.47221217250771</v>
+        <v>12.58557599363751</v>
       </c>
       <c r="N19">
-        <v>19.56202273753592</v>
+        <v>12.19840225691287</v>
       </c>
       <c r="O19">
-        <v>25.16211850437138</v>
+        <v>16.35764214620198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.39959708430376</v>
+        <v>14.65307530184465</v>
       </c>
       <c r="C20">
-        <v>5.307199035877354</v>
+        <v>8.327252554589807</v>
       </c>
       <c r="D20">
-        <v>9.235199385066815</v>
+        <v>7.579627816714944</v>
       </c>
       <c r="E20">
-        <v>13.77442123220477</v>
+        <v>10.04409446811865</v>
       </c>
       <c r="F20">
-        <v>33.41258617017787</v>
+        <v>23.71947357309809</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>22.88894721423664</v>
+        <v>14.14443606682964</v>
       </c>
       <c r="J20">
-        <v>10.10496355686757</v>
+        <v>5.989039050441784</v>
       </c>
       <c r="K20">
-        <v>10.42135566053333</v>
+        <v>13.02189503921848</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.50078072173956</v>
+        <v>12.75983036103744</v>
       </c>
       <c r="N20">
-        <v>19.54155261547343</v>
+        <v>12.12477037949351</v>
       </c>
       <c r="O20">
-        <v>25.14226538241694</v>
+        <v>16.38518293204274</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.7195517562101</v>
+        <v>15.53153680154186</v>
       </c>
       <c r="C21">
-        <v>5.509360259677662</v>
+        <v>8.820053450069112</v>
       </c>
       <c r="D21">
-        <v>9.289502654084956</v>
+        <v>7.911432051751922</v>
       </c>
       <c r="E21">
-        <v>13.79951501535752</v>
+        <v>10.35829720972615</v>
       </c>
       <c r="F21">
-        <v>33.38810669092835</v>
+        <v>24.19489049092445</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>22.80712390535857</v>
+        <v>14.06023722777244</v>
       </c>
       <c r="J21">
-        <v>10.08691039871988</v>
+        <v>6.006312707068879</v>
       </c>
       <c r="K21">
-        <v>10.63610910919996</v>
+        <v>13.75937683972797</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.59901237042117</v>
+        <v>13.3341700813931</v>
       </c>
       <c r="N21">
-        <v>19.47468263961102</v>
+        <v>11.8797569892727</v>
       </c>
       <c r="O21">
-        <v>25.08103207447999</v>
+        <v>16.49507620044832</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.92461170867835</v>
+        <v>16.08155857157316</v>
       </c>
       <c r="C22">
-        <v>5.63793901995797</v>
+        <v>9.129147672488628</v>
       </c>
       <c r="D22">
-        <v>9.326037479057279</v>
+        <v>8.12364368920737</v>
       </c>
       <c r="E22">
-        <v>13.81785276707409</v>
+        <v>10.56363138426729</v>
       </c>
       <c r="F22">
-        <v>33.37821391088993</v>
+        <v>24.52008010163524</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>22.75698458370277</v>
+        <v>14.0166092965286</v>
       </c>
       <c r="J22">
-        <v>10.07608939538155</v>
+        <v>6.020137858089757</v>
       </c>
       <c r="K22">
-        <v>10.77527834090967</v>
+        <v>14.22207976907187</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.66481544439945</v>
+        <v>13.74281914205959</v>
       </c>
       <c r="N22">
-        <v>19.4323948957522</v>
+        <v>11.72126925292505</v>
       </c>
       <c r="O22">
-        <v>25.04509479418706</v>
+        <v>16.58031401932372</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.81555907923549</v>
+        <v>15.7901947848895</v>
       </c>
       <c r="C23">
-        <v>5.569649949150634</v>
+        <v>8.965358788574898</v>
       </c>
       <c r="D23">
-        <v>9.306445115785985</v>
+        <v>8.010821857381496</v>
       </c>
       <c r="E23">
-        <v>13.80788945962646</v>
+        <v>10.45405850869483</v>
       </c>
       <c r="F23">
-        <v>33.38293545343486</v>
+        <v>24.34519620428581</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>22.7834393997558</v>
+        <v>14.03881208421076</v>
       </c>
       <c r="J23">
-        <v>10.08177540404343</v>
+        <v>6.012522689354142</v>
       </c>
       <c r="K23">
-        <v>10.70112364271037</v>
+        <v>13.9768851388938</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.62955301259028</v>
+        <v>13.50596044575868</v>
       </c>
       <c r="N23">
-        <v>19.4548354821587</v>
+        <v>11.80571549221542</v>
       </c>
       <c r="O23">
-        <v>25.06390136906759</v>
+        <v>16.53356319926705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.39430415698705</v>
+        <v>14.63830770502944</v>
       </c>
       <c r="C24">
-        <v>5.303837650045877</v>
+        <v>8.318977334458312</v>
       </c>
       <c r="D24">
-        <v>9.234330017470459</v>
+        <v>7.574129840092009</v>
       </c>
       <c r="E24">
-        <v>13.77404405144015</v>
+        <v>10.03896254425857</v>
       </c>
       <c r="F24">
-        <v>33.41308940219238</v>
+        <v>23.71194754181679</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>22.89034087434274</v>
+        <v>14.14599615126815</v>
       </c>
       <c r="J24">
-        <v>10.10527515592272</v>
+        <v>5.988798553295366</v>
       </c>
       <c r="K24">
-        <v>10.4178288459405</v>
+        <v>13.00951455886941</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.49920325022397</v>
+        <v>12.75030190825617</v>
       </c>
       <c r="N24">
-        <v>19.54266954903261</v>
+        <v>12.12880461461859</v>
       </c>
       <c r="O24">
-        <v>25.14333505444738</v>
+        <v>16.38360644999897</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.924848208738471</v>
+        <v>13.29114747775109</v>
       </c>
       <c r="C25">
-        <v>5.003183817868677</v>
+        <v>7.56537258152122</v>
       </c>
       <c r="D25">
-        <v>9.16127430397159</v>
+        <v>7.084901963673226</v>
       </c>
       <c r="E25">
-        <v>13.7459653219052</v>
+        <v>9.592948435869326</v>
       </c>
       <c r="F25">
-        <v>33.47184279513991</v>
+        <v>23.09095612851361</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>23.01996306458391</v>
+        <v>14.30676271967556</v>
       </c>
       <c r="J25">
-        <v>10.1348315071196</v>
+        <v>5.97365437482608</v>
       </c>
       <c r="K25">
-        <v>10.10864642999055</v>
+        <v>11.88280783228189</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.36593250398711</v>
+        <v>11.90064629351566</v>
       </c>
       <c r="N25">
-        <v>19.64352700501354</v>
+        <v>12.48519289752591</v>
       </c>
       <c r="O25">
-        <v>25.24650981154378</v>
+        <v>16.27632301483951</v>
       </c>
     </row>
   </sheetData>
